--- a/Superstore Sales People Data.xlsx
+++ b/Superstore Sales People Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssleg\Portfolio\Projects\Superstore Sales Data Analysis Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssleg\Portfolio\Projects\Superstore Sales Analysis Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -537,10 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -599,7 +598,6 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -613,7 +611,6 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -627,7 +624,6 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -641,7 +637,6 @@
         <name val="Scada"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,52 +927,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
